--- a/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,289 +452,625 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>930</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>210</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>390</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>700</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>540</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45446</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>580</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45453</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45460</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>220</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45467</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45474</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>950</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45481</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>600</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45495</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>140</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45502</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>860</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45509</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45523</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>540</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45530</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45537</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45544</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45551</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45558</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45565</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45572</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>620</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45579</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>520</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45593</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B79" t="n">
         <v>680</v>
       </c>
     </row>
@@ -749,7 +1085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,81 +1107,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1380</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>900</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1220</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1000</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1060</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>840</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1420</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1140</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>2020</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,151 +604,151 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>690</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>690</v>
+        <v>710</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>950</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>890</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>710</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>290</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>390</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>370</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>730</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>280</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>10</v>
@@ -756,103 +756,103 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>890</v>
+        <v>930</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>930</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>510</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>390</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>240</v>
@@ -860,217 +860,193 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>860</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>860</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>540</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>280</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>260</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45578.99999999999</v>
-      </c>
-      <c r="B77" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B78" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B79" t="n">
         <v>680</v>
       </c>
     </row>
@@ -1158,7 +1134,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3220</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">

--- a/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1078,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1255,6 +1256,1209 @@
       </c>
       <c r="B23" t="n">
         <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-69.39903885156741</v>
+      </c>
+      <c r="D2" t="n">
+        <v>531.6907136245158</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>230</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-61.6455941943687</v>
+      </c>
+      <c r="D3" t="n">
+        <v>518.3512123313933</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>234</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-63.19829992924354</v>
+      </c>
+      <c r="D4" t="n">
+        <v>547.2389613622099</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>236</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-71.95501298682674</v>
+      </c>
+      <c r="D5" t="n">
+        <v>554.8635409760451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>237</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-73.26182167267376</v>
+      </c>
+      <c r="D6" t="n">
+        <v>530.2531739143109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>239</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-60.63540269055888</v>
+      </c>
+      <c r="D7" t="n">
+        <v>536.1836159734152</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>240</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-51.18540547179876</v>
+      </c>
+      <c r="D8" t="n">
+        <v>534.1221911923178</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>241</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-42.7957287817549</v>
+      </c>
+      <c r="D9" t="n">
+        <v>537.9868847422954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>247</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-47.63151175171982</v>
+      </c>
+      <c r="D10" t="n">
+        <v>538.336363498788</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>248</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-49.48214608043078</v>
+      </c>
+      <c r="D11" t="n">
+        <v>559.0073594194529</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>249</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-34.17044742102082</v>
+      </c>
+      <c r="D12" t="n">
+        <v>543.4528681359083</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>251</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-59.07822566571439</v>
+      </c>
+      <c r="D13" t="n">
+        <v>564.4654752657818</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>252</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-48.68203664301404</v>
+      </c>
+      <c r="D14" t="n">
+        <v>525.4352581699796</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>253</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-51.37646101153899</v>
+      </c>
+      <c r="D15" t="n">
+        <v>551.1131341580498</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>255</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-60.28799659025523</v>
+      </c>
+      <c r="D16" t="n">
+        <v>544.6683959039249</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>256</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-36.82324723976456</v>
+      </c>
+      <c r="D17" t="n">
+        <v>551.1389206936187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>257</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-38.35250485660982</v>
+      </c>
+      <c r="D18" t="n">
+        <v>576.2813267552229</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>259</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-41.54495436883936</v>
+      </c>
+      <c r="D19" t="n">
+        <v>523.5489449966459</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>260</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-42.43212503869997</v>
+      </c>
+      <c r="D20" t="n">
+        <v>557.5233348678169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>264</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-28.42970129903944</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.1798130245559</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>267</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-42.66175958813193</v>
+      </c>
+      <c r="D22" t="n">
+        <v>561.5569087723908</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>268</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-43.88663082095341</v>
+      </c>
+      <c r="D23" t="n">
+        <v>550.6659942136257</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>271</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-12.66700960368427</v>
+      </c>
+      <c r="D24" t="n">
+        <v>569.1275699797906</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>272</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-19.31540997581291</v>
+      </c>
+      <c r="D25" t="n">
+        <v>568.1151138508686</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>274</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-24.61378605058202</v>
+      </c>
+      <c r="D26" t="n">
+        <v>566.1832398913858</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>275</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-15.93655626184784</v>
+      </c>
+      <c r="D27" t="n">
+        <v>586.9451901181714</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>276</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-25.61956062731792</v>
+      </c>
+      <c r="D28" t="n">
+        <v>568.8678490458906</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>278</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-45.34786025272531</v>
+      </c>
+      <c r="D29" t="n">
+        <v>574.0940649117211</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>279</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-44.85655546870279</v>
+      </c>
+      <c r="D30" t="n">
+        <v>604.6772114418445</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>280</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-38.93630620728349</v>
+      </c>
+      <c r="D31" t="n">
+        <v>591.4680131006191</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>282</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-22.42416199014703</v>
+      </c>
+      <c r="D32" t="n">
+        <v>591.9129174589186</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>283</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-20.76263727128046</v>
+      </c>
+      <c r="D33" t="n">
+        <v>584.3643455245571</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>284</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-17.76144537256967</v>
+      </c>
+      <c r="D34" t="n">
+        <v>587.7284504303012</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>286</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-25.90867400347904</v>
+      </c>
+      <c r="D35" t="n">
+        <v>582.0484203054766</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>287</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-31.88460263248604</v>
+      </c>
+      <c r="D36" t="n">
+        <v>602.0707161712329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>288</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-22.72656956475656</v>
+      </c>
+      <c r="D37" t="n">
+        <v>590.9483230770186</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>290</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-15.76604666346423</v>
+      </c>
+      <c r="D38" t="n">
+        <v>572.2957506821484</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>291</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-2.43667147890208</v>
+      </c>
+      <c r="D39" t="n">
+        <v>582.7579331919295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>293</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-5.209959788127661</v>
+      </c>
+      <c r="D40" t="n">
+        <v>601.2474128639579</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>297</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-7.484876477867366</v>
+      </c>
+      <c r="D41" t="n">
+        <v>603.3930782648101</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>299</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11.88663564351645</v>
+      </c>
+      <c r="D42" t="n">
+        <v>595.4807833177304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>302</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.502534538708446</v>
+      </c>
+      <c r="D43" t="n">
+        <v>611.799030944981</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>303</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.5376849573836</v>
+      </c>
+      <c r="D44" t="n">
+        <v>626.0626020449951</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>306</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25.96229968826541</v>
+      </c>
+      <c r="D45" t="n">
+        <v>609.6968622581526</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>309</v>
+      </c>
+      <c r="C46" t="n">
+        <v>23.28608760466798</v>
+      </c>
+      <c r="D46" t="n">
+        <v>624.6275446412997</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>310</v>
+      </c>
+      <c r="C47" t="n">
+        <v>14.21026573541645</v>
+      </c>
+      <c r="D47" t="n">
+        <v>594.9225754802721</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>311</v>
+      </c>
+      <c r="C48" t="n">
+        <v>11.55589515604226</v>
+      </c>
+      <c r="D48" t="n">
+        <v>614.0985869089287</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>313</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.663252099787602</v>
+      </c>
+      <c r="D49" t="n">
+        <v>622.7491042729168</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>314</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.423058311196197</v>
+      </c>
+      <c r="D50" t="n">
+        <v>621.0876492794581</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>316</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.04217557829045</v>
+      </c>
+      <c r="D51" t="n">
+        <v>614.3330817757487</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>317</v>
+      </c>
+      <c r="C52" t="n">
+        <v>11.48237577995817</v>
+      </c>
+      <c r="D52" t="n">
+        <v>633.6706654991186</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>318</v>
+      </c>
+      <c r="C53" t="n">
+        <v>22.79538841408689</v>
+      </c>
+      <c r="D53" t="n">
+        <v>620.095236850163</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>320</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9530848273931074</v>
+      </c>
+      <c r="D54" t="n">
+        <v>638.2975476903929</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>321</v>
+      </c>
+      <c r="C55" t="n">
+        <v>28.13885631303251</v>
+      </c>
+      <c r="D55" t="n">
+        <v>640.3436769571459</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>322</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16.28739247320754</v>
+      </c>
+      <c r="D56" t="n">
+        <v>609.5700361908247</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>325</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.616037038658737</v>
+      </c>
+      <c r="D57" t="n">
+        <v>646.3277165757827</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>326</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30.70104794762134</v>
+      </c>
+      <c r="D58" t="n">
+        <v>642.6329572224414</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>328</v>
+      </c>
+      <c r="C59" t="n">
+        <v>28.86542775127044</v>
+      </c>
+      <c r="D59" t="n">
+        <v>629.6879650089012</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>329</v>
+      </c>
+      <c r="C60" t="n">
+        <v>39.52205969015039</v>
+      </c>
+      <c r="D60" t="n">
+        <v>640.0224570781299</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>330</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30.01114870428676</v>
+      </c>
+      <c r="D61" t="n">
+        <v>638.4647543895766</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>332</v>
+      </c>
+      <c r="C62" t="n">
+        <v>21.38487963003394</v>
+      </c>
+      <c r="D62" t="n">
+        <v>647.3637745966629</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>333</v>
+      </c>
+      <c r="C63" t="n">
+        <v>17.17673006626303</v>
+      </c>
+      <c r="D63" t="n">
+        <v>629.6004057702796</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>336</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30.73888686166037</v>
+      </c>
+      <c r="D64" t="n">
+        <v>620.9181941757207</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>337</v>
+      </c>
+      <c r="C65" t="n">
+        <v>23.64170315504066</v>
+      </c>
+      <c r="D65" t="n">
+        <v>632.8894137468856</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>338</v>
+      </c>
+      <c r="C66" t="n">
+        <v>32.15970155383832</v>
+      </c>
+      <c r="D66" t="n">
+        <v>635.4702440135416</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>341</v>
+      </c>
+      <c r="C67" t="n">
+        <v>42.55938242666809</v>
+      </c>
+      <c r="D67" t="n">
+        <v>657.997676675741</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>343</v>
+      </c>
+      <c r="C68" t="n">
+        <v>44.66768549224246</v>
+      </c>
+      <c r="D68" t="n">
+        <v>638.8623572775244</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>344</v>
+      </c>
+      <c r="C69" t="n">
+        <v>50.24115631039649</v>
+      </c>
+      <c r="D69" t="n">
+        <v>648.0068961073488</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>345</v>
+      </c>
+      <c r="C70" t="n">
+        <v>36.31946180785185</v>
+      </c>
+      <c r="D70" t="n">
+        <v>645.4167626891121</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>347</v>
+      </c>
+      <c r="C71" t="n">
+        <v>37.06406814674168</v>
+      </c>
+      <c r="D71" t="n">
+        <v>654.9731021490725</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>348</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10.81331906207743</v>
+      </c>
+      <c r="D72" t="n">
+        <v>670.4642238696215</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>349</v>
+      </c>
+      <c r="C73" t="n">
+        <v>43.61625880571886</v>
+      </c>
+      <c r="D73" t="n">
+        <v>641.4685567584</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>351</v>
+      </c>
+      <c r="C74" t="n">
+        <v>46.25845969486508</v>
+      </c>
+      <c r="D74" t="n">
+        <v>644.4290188132682</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>352</v>
+      </c>
+      <c r="C75" t="n">
+        <v>59.68560036714276</v>
+      </c>
+      <c r="D75" t="n">
+        <v>640.3313271075068</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>355</v>
+      </c>
+      <c r="C76" t="n">
+        <v>44.61301117582777</v>
+      </c>
+      <c r="D76" t="n">
+        <v>661.5939652461927</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>356</v>
+      </c>
+      <c r="C77" t="n">
+        <v>61.58820094464421</v>
+      </c>
+      <c r="D77" t="n">
+        <v>681.3829829633728</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>357</v>
+      </c>
+      <c r="C78" t="n">
+        <v>73.3919256160103</v>
+      </c>
+      <c r="D78" t="n">
+        <v>658.45337887372</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>359</v>
+      </c>
+      <c r="C79" t="n">
+        <v>40.43513812674061</v>
+      </c>
+      <c r="D79" t="n">
+        <v>662.961485305921</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>360</v>
+      </c>
+      <c r="C80" t="n">
+        <v>55.30912650205082</v>
+      </c>
+      <c r="D80" t="n">
+        <v>655.6277277847822</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>361</v>
+      </c>
+      <c r="C81" t="n">
+        <v>72.04472097301804</v>
+      </c>
+      <c r="D81" t="n">
+        <v>663.2391900905236</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>363</v>
+      </c>
+      <c r="C82" t="n">
+        <v>65.79188384707582</v>
+      </c>
+      <c r="D82" t="n">
+        <v>701.3819250975336</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B83" t="n">
+        <v>364</v>
+      </c>
+      <c r="C83" t="n">
+        <v>63.1633785833931</v>
+      </c>
+      <c r="D83" t="n">
+        <v>645.6708884888151</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B84" t="n">
+        <v>366</v>
+      </c>
+      <c r="C84" t="n">
+        <v>43.93508478977477</v>
+      </c>
+      <c r="D84" t="n">
+        <v>668.7600443474503</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
@@ -1269,7 +1269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,16 +1288,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1306,12 +1296,6 @@
       <c r="B2" t="n">
         <v>229</v>
       </c>
-      <c r="C2" t="n">
-        <v>-69.39903885156741</v>
-      </c>
-      <c r="D2" t="n">
-        <v>531.6907136245158</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1320,12 +1304,6 @@
       <c r="B3" t="n">
         <v>230</v>
       </c>
-      <c r="C3" t="n">
-        <v>-61.6455941943687</v>
-      </c>
-      <c r="D3" t="n">
-        <v>518.3512123313933</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1334,12 +1312,6 @@
       <c r="B4" t="n">
         <v>234</v>
       </c>
-      <c r="C4" t="n">
-        <v>-63.19829992924354</v>
-      </c>
-      <c r="D4" t="n">
-        <v>547.2389613622099</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1348,12 +1320,6 @@
       <c r="B5" t="n">
         <v>236</v>
       </c>
-      <c r="C5" t="n">
-        <v>-71.95501298682674</v>
-      </c>
-      <c r="D5" t="n">
-        <v>554.8635409760451</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1362,12 +1328,6 @@
       <c r="B6" t="n">
         <v>237</v>
       </c>
-      <c r="C6" t="n">
-        <v>-73.26182167267376</v>
-      </c>
-      <c r="D6" t="n">
-        <v>530.2531739143109</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1376,12 +1336,6 @@
       <c r="B7" t="n">
         <v>239</v>
       </c>
-      <c r="C7" t="n">
-        <v>-60.63540269055888</v>
-      </c>
-      <c r="D7" t="n">
-        <v>536.1836159734152</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1390,12 +1344,6 @@
       <c r="B8" t="n">
         <v>240</v>
       </c>
-      <c r="C8" t="n">
-        <v>-51.18540547179876</v>
-      </c>
-      <c r="D8" t="n">
-        <v>534.1221911923178</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1404,12 +1352,6 @@
       <c r="B9" t="n">
         <v>241</v>
       </c>
-      <c r="C9" t="n">
-        <v>-42.7957287817549</v>
-      </c>
-      <c r="D9" t="n">
-        <v>537.9868847422954</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1418,12 +1360,6 @@
       <c r="B10" t="n">
         <v>247</v>
       </c>
-      <c r="C10" t="n">
-        <v>-47.63151175171982</v>
-      </c>
-      <c r="D10" t="n">
-        <v>538.336363498788</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1432,12 +1368,6 @@
       <c r="B11" t="n">
         <v>248</v>
       </c>
-      <c r="C11" t="n">
-        <v>-49.48214608043078</v>
-      </c>
-      <c r="D11" t="n">
-        <v>559.0073594194529</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1446,12 +1376,6 @@
       <c r="B12" t="n">
         <v>249</v>
       </c>
-      <c r="C12" t="n">
-        <v>-34.17044742102082</v>
-      </c>
-      <c r="D12" t="n">
-        <v>543.4528681359083</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1460,12 +1384,6 @@
       <c r="B13" t="n">
         <v>251</v>
       </c>
-      <c r="C13" t="n">
-        <v>-59.07822566571439</v>
-      </c>
-      <c r="D13" t="n">
-        <v>564.4654752657818</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1474,12 +1392,6 @@
       <c r="B14" t="n">
         <v>252</v>
       </c>
-      <c r="C14" t="n">
-        <v>-48.68203664301404</v>
-      </c>
-      <c r="D14" t="n">
-        <v>525.4352581699796</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1488,12 +1400,6 @@
       <c r="B15" t="n">
         <v>253</v>
       </c>
-      <c r="C15" t="n">
-        <v>-51.37646101153899</v>
-      </c>
-      <c r="D15" t="n">
-        <v>551.1131341580498</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1502,12 +1408,6 @@
       <c r="B16" t="n">
         <v>255</v>
       </c>
-      <c r="C16" t="n">
-        <v>-60.28799659025523</v>
-      </c>
-      <c r="D16" t="n">
-        <v>544.6683959039249</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1516,12 +1416,6 @@
       <c r="B17" t="n">
         <v>256</v>
       </c>
-      <c r="C17" t="n">
-        <v>-36.82324723976456</v>
-      </c>
-      <c r="D17" t="n">
-        <v>551.1389206936187</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1530,12 +1424,6 @@
       <c r="B18" t="n">
         <v>257</v>
       </c>
-      <c r="C18" t="n">
-        <v>-38.35250485660982</v>
-      </c>
-      <c r="D18" t="n">
-        <v>576.2813267552229</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1544,12 +1432,6 @@
       <c r="B19" t="n">
         <v>259</v>
       </c>
-      <c r="C19" t="n">
-        <v>-41.54495436883936</v>
-      </c>
-      <c r="D19" t="n">
-        <v>523.5489449966459</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1558,12 +1440,6 @@
       <c r="B20" t="n">
         <v>260</v>
       </c>
-      <c r="C20" t="n">
-        <v>-42.43212503869997</v>
-      </c>
-      <c r="D20" t="n">
-        <v>557.5233348678169</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,12 +1448,6 @@
       <c r="B21" t="n">
         <v>264</v>
       </c>
-      <c r="C21" t="n">
-        <v>-28.42970129903944</v>
-      </c>
-      <c r="D21" t="n">
-        <v>577.1798130245559</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1586,12 +1456,6 @@
       <c r="B22" t="n">
         <v>267</v>
       </c>
-      <c r="C22" t="n">
-        <v>-42.66175958813193</v>
-      </c>
-      <c r="D22" t="n">
-        <v>561.5569087723908</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1600,12 +1464,6 @@
       <c r="B23" t="n">
         <v>268</v>
       </c>
-      <c r="C23" t="n">
-        <v>-43.88663082095341</v>
-      </c>
-      <c r="D23" t="n">
-        <v>550.6659942136257</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1614,12 +1472,6 @@
       <c r="B24" t="n">
         <v>271</v>
       </c>
-      <c r="C24" t="n">
-        <v>-12.66700960368427</v>
-      </c>
-      <c r="D24" t="n">
-        <v>569.1275699797906</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1628,12 +1480,6 @@
       <c r="B25" t="n">
         <v>272</v>
       </c>
-      <c r="C25" t="n">
-        <v>-19.31540997581291</v>
-      </c>
-      <c r="D25" t="n">
-        <v>568.1151138508686</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1642,12 +1488,6 @@
       <c r="B26" t="n">
         <v>274</v>
       </c>
-      <c r="C26" t="n">
-        <v>-24.61378605058202</v>
-      </c>
-      <c r="D26" t="n">
-        <v>566.1832398913858</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1656,12 +1496,6 @@
       <c r="B27" t="n">
         <v>275</v>
       </c>
-      <c r="C27" t="n">
-        <v>-15.93655626184784</v>
-      </c>
-      <c r="D27" t="n">
-        <v>586.9451901181714</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1670,12 +1504,6 @@
       <c r="B28" t="n">
         <v>276</v>
       </c>
-      <c r="C28" t="n">
-        <v>-25.61956062731792</v>
-      </c>
-      <c r="D28" t="n">
-        <v>568.8678490458906</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1684,12 +1512,6 @@
       <c r="B29" t="n">
         <v>278</v>
       </c>
-      <c r="C29" t="n">
-        <v>-45.34786025272531</v>
-      </c>
-      <c r="D29" t="n">
-        <v>574.0940649117211</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1698,12 +1520,6 @@
       <c r="B30" t="n">
         <v>279</v>
       </c>
-      <c r="C30" t="n">
-        <v>-44.85655546870279</v>
-      </c>
-      <c r="D30" t="n">
-        <v>604.6772114418445</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1712,12 +1528,6 @@
       <c r="B31" t="n">
         <v>280</v>
       </c>
-      <c r="C31" t="n">
-        <v>-38.93630620728349</v>
-      </c>
-      <c r="D31" t="n">
-        <v>591.4680131006191</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1726,12 +1536,6 @@
       <c r="B32" t="n">
         <v>282</v>
       </c>
-      <c r="C32" t="n">
-        <v>-22.42416199014703</v>
-      </c>
-      <c r="D32" t="n">
-        <v>591.9129174589186</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1740,12 +1544,6 @@
       <c r="B33" t="n">
         <v>283</v>
       </c>
-      <c r="C33" t="n">
-        <v>-20.76263727128046</v>
-      </c>
-      <c r="D33" t="n">
-        <v>584.3643455245571</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1754,12 +1552,6 @@
       <c r="B34" t="n">
         <v>284</v>
       </c>
-      <c r="C34" t="n">
-        <v>-17.76144537256967</v>
-      </c>
-      <c r="D34" t="n">
-        <v>587.7284504303012</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1768,12 +1560,6 @@
       <c r="B35" t="n">
         <v>286</v>
       </c>
-      <c r="C35" t="n">
-        <v>-25.90867400347904</v>
-      </c>
-      <c r="D35" t="n">
-        <v>582.0484203054766</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1782,12 +1568,6 @@
       <c r="B36" t="n">
         <v>287</v>
       </c>
-      <c r="C36" t="n">
-        <v>-31.88460263248604</v>
-      </c>
-      <c r="D36" t="n">
-        <v>602.0707161712329</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1796,12 +1576,6 @@
       <c r="B37" t="n">
         <v>288</v>
       </c>
-      <c r="C37" t="n">
-        <v>-22.72656956475656</v>
-      </c>
-      <c r="D37" t="n">
-        <v>590.9483230770186</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1810,12 +1584,6 @@
       <c r="B38" t="n">
         <v>290</v>
       </c>
-      <c r="C38" t="n">
-        <v>-15.76604666346423</v>
-      </c>
-      <c r="D38" t="n">
-        <v>572.2957506821484</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1824,12 +1592,6 @@
       <c r="B39" t="n">
         <v>291</v>
       </c>
-      <c r="C39" t="n">
-        <v>-2.43667147890208</v>
-      </c>
-      <c r="D39" t="n">
-        <v>582.7579331919295</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1838,12 +1600,6 @@
       <c r="B40" t="n">
         <v>293</v>
       </c>
-      <c r="C40" t="n">
-        <v>-5.209959788127661</v>
-      </c>
-      <c r="D40" t="n">
-        <v>601.2474128639579</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1852,12 +1608,6 @@
       <c r="B41" t="n">
         <v>297</v>
       </c>
-      <c r="C41" t="n">
-        <v>-7.484876477867366</v>
-      </c>
-      <c r="D41" t="n">
-        <v>603.3930782648101</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1866,12 +1616,6 @@
       <c r="B42" t="n">
         <v>299</v>
       </c>
-      <c r="C42" t="n">
-        <v>11.88663564351645</v>
-      </c>
-      <c r="D42" t="n">
-        <v>595.4807833177304</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1880,12 +1624,6 @@
       <c r="B43" t="n">
         <v>302</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.502534538708446</v>
-      </c>
-      <c r="D43" t="n">
-        <v>611.799030944981</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1894,12 +1632,6 @@
       <c r="B44" t="n">
         <v>303</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.5376849573836</v>
-      </c>
-      <c r="D44" t="n">
-        <v>626.0626020449951</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1908,12 +1640,6 @@
       <c r="B45" t="n">
         <v>306</v>
       </c>
-      <c r="C45" t="n">
-        <v>25.96229968826541</v>
-      </c>
-      <c r="D45" t="n">
-        <v>609.6968622581526</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1922,12 +1648,6 @@
       <c r="B46" t="n">
         <v>309</v>
       </c>
-      <c r="C46" t="n">
-        <v>23.28608760466798</v>
-      </c>
-      <c r="D46" t="n">
-        <v>624.6275446412997</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1936,12 +1656,6 @@
       <c r="B47" t="n">
         <v>310</v>
       </c>
-      <c r="C47" t="n">
-        <v>14.21026573541645</v>
-      </c>
-      <c r="D47" t="n">
-        <v>594.9225754802721</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1950,12 +1664,6 @@
       <c r="B48" t="n">
         <v>311</v>
       </c>
-      <c r="C48" t="n">
-        <v>11.55589515604226</v>
-      </c>
-      <c r="D48" t="n">
-        <v>614.0985869089287</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1964,12 +1672,6 @@
       <c r="B49" t="n">
         <v>313</v>
       </c>
-      <c r="C49" t="n">
-        <v>6.663252099787602</v>
-      </c>
-      <c r="D49" t="n">
-        <v>622.7491042729168</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1978,12 +1680,6 @@
       <c r="B50" t="n">
         <v>314</v>
       </c>
-      <c r="C50" t="n">
-        <v>6.423058311196197</v>
-      </c>
-      <c r="D50" t="n">
-        <v>621.0876492794581</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1992,12 +1688,6 @@
       <c r="B51" t="n">
         <v>316</v>
       </c>
-      <c r="C51" t="n">
-        <v>12.04217557829045</v>
-      </c>
-      <c r="D51" t="n">
-        <v>614.3330817757487</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2006,12 +1696,6 @@
       <c r="B52" t="n">
         <v>317</v>
       </c>
-      <c r="C52" t="n">
-        <v>11.48237577995817</v>
-      </c>
-      <c r="D52" t="n">
-        <v>633.6706654991186</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2020,12 +1704,6 @@
       <c r="B53" t="n">
         <v>318</v>
       </c>
-      <c r="C53" t="n">
-        <v>22.79538841408689</v>
-      </c>
-      <c r="D53" t="n">
-        <v>620.095236850163</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2034,12 +1712,6 @@
       <c r="B54" t="n">
         <v>320</v>
       </c>
-      <c r="C54" t="n">
-        <v>0.9530848273931074</v>
-      </c>
-      <c r="D54" t="n">
-        <v>638.2975476903929</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2048,12 +1720,6 @@
       <c r="B55" t="n">
         <v>321</v>
       </c>
-      <c r="C55" t="n">
-        <v>28.13885631303251</v>
-      </c>
-      <c r="D55" t="n">
-        <v>640.3436769571459</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2062,12 +1728,6 @@
       <c r="B56" t="n">
         <v>322</v>
       </c>
-      <c r="C56" t="n">
-        <v>16.28739247320754</v>
-      </c>
-      <c r="D56" t="n">
-        <v>609.5700361908247</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2076,12 +1736,6 @@
       <c r="B57" t="n">
         <v>325</v>
       </c>
-      <c r="C57" t="n">
-        <v>4.616037038658737</v>
-      </c>
-      <c r="D57" t="n">
-        <v>646.3277165757827</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2090,12 +1744,6 @@
       <c r="B58" t="n">
         <v>326</v>
       </c>
-      <c r="C58" t="n">
-        <v>30.70104794762134</v>
-      </c>
-      <c r="D58" t="n">
-        <v>642.6329572224414</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2104,12 +1752,6 @@
       <c r="B59" t="n">
         <v>328</v>
       </c>
-      <c r="C59" t="n">
-        <v>28.86542775127044</v>
-      </c>
-      <c r="D59" t="n">
-        <v>629.6879650089012</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2118,12 +1760,6 @@
       <c r="B60" t="n">
         <v>329</v>
       </c>
-      <c r="C60" t="n">
-        <v>39.52205969015039</v>
-      </c>
-      <c r="D60" t="n">
-        <v>640.0224570781299</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2132,12 +1768,6 @@
       <c r="B61" t="n">
         <v>330</v>
       </c>
-      <c r="C61" t="n">
-        <v>30.01114870428676</v>
-      </c>
-      <c r="D61" t="n">
-        <v>638.4647543895766</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2146,12 +1776,6 @@
       <c r="B62" t="n">
         <v>332</v>
       </c>
-      <c r="C62" t="n">
-        <v>21.38487963003394</v>
-      </c>
-      <c r="D62" t="n">
-        <v>647.3637745966629</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2160,12 +1784,6 @@
       <c r="B63" t="n">
         <v>333</v>
       </c>
-      <c r="C63" t="n">
-        <v>17.17673006626303</v>
-      </c>
-      <c r="D63" t="n">
-        <v>629.6004057702796</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2174,12 +1792,6 @@
       <c r="B64" t="n">
         <v>336</v>
       </c>
-      <c r="C64" t="n">
-        <v>30.73888686166037</v>
-      </c>
-      <c r="D64" t="n">
-        <v>620.9181941757207</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2188,12 +1800,6 @@
       <c r="B65" t="n">
         <v>337</v>
       </c>
-      <c r="C65" t="n">
-        <v>23.64170315504066</v>
-      </c>
-      <c r="D65" t="n">
-        <v>632.8894137468856</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2202,12 +1808,6 @@
       <c r="B66" t="n">
         <v>338</v>
       </c>
-      <c r="C66" t="n">
-        <v>32.15970155383832</v>
-      </c>
-      <c r="D66" t="n">
-        <v>635.4702440135416</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2216,12 +1816,6 @@
       <c r="B67" t="n">
         <v>341</v>
       </c>
-      <c r="C67" t="n">
-        <v>42.55938242666809</v>
-      </c>
-      <c r="D67" t="n">
-        <v>657.997676675741</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2230,12 +1824,6 @@
       <c r="B68" t="n">
         <v>343</v>
       </c>
-      <c r="C68" t="n">
-        <v>44.66768549224246</v>
-      </c>
-      <c r="D68" t="n">
-        <v>638.8623572775244</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2244,12 +1832,6 @@
       <c r="B69" t="n">
         <v>344</v>
       </c>
-      <c r="C69" t="n">
-        <v>50.24115631039649</v>
-      </c>
-      <c r="D69" t="n">
-        <v>648.0068961073488</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2258,12 +1840,6 @@
       <c r="B70" t="n">
         <v>345</v>
       </c>
-      <c r="C70" t="n">
-        <v>36.31946180785185</v>
-      </c>
-      <c r="D70" t="n">
-        <v>645.4167626891121</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2272,12 +1848,6 @@
       <c r="B71" t="n">
         <v>347</v>
       </c>
-      <c r="C71" t="n">
-        <v>37.06406814674168</v>
-      </c>
-      <c r="D71" t="n">
-        <v>654.9731021490725</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2286,12 +1856,6 @@
       <c r="B72" t="n">
         <v>348</v>
       </c>
-      <c r="C72" t="n">
-        <v>10.81331906207743</v>
-      </c>
-      <c r="D72" t="n">
-        <v>670.4642238696215</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2300,12 +1864,6 @@
       <c r="B73" t="n">
         <v>349</v>
       </c>
-      <c r="C73" t="n">
-        <v>43.61625880571886</v>
-      </c>
-      <c r="D73" t="n">
-        <v>641.4685567584</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2314,12 +1872,6 @@
       <c r="B74" t="n">
         <v>351</v>
       </c>
-      <c r="C74" t="n">
-        <v>46.25845969486508</v>
-      </c>
-      <c r="D74" t="n">
-        <v>644.4290188132682</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2328,12 +1880,6 @@
       <c r="B75" t="n">
         <v>352</v>
       </c>
-      <c r="C75" t="n">
-        <v>59.68560036714276</v>
-      </c>
-      <c r="D75" t="n">
-        <v>640.3313271075068</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2342,12 +1888,6 @@
       <c r="B76" t="n">
         <v>355</v>
       </c>
-      <c r="C76" t="n">
-        <v>44.61301117582777</v>
-      </c>
-      <c r="D76" t="n">
-        <v>661.5939652461927</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2356,12 +1896,6 @@
       <c r="B77" t="n">
         <v>356</v>
       </c>
-      <c r="C77" t="n">
-        <v>61.58820094464421</v>
-      </c>
-      <c r="D77" t="n">
-        <v>681.3829829633728</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2370,12 +1904,6 @@
       <c r="B78" t="n">
         <v>357</v>
       </c>
-      <c r="C78" t="n">
-        <v>73.3919256160103</v>
-      </c>
-      <c r="D78" t="n">
-        <v>658.45337887372</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2384,12 +1912,6 @@
       <c r="B79" t="n">
         <v>359</v>
       </c>
-      <c r="C79" t="n">
-        <v>40.43513812674061</v>
-      </c>
-      <c r="D79" t="n">
-        <v>662.961485305921</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2398,12 +1920,6 @@
       <c r="B80" t="n">
         <v>360</v>
       </c>
-      <c r="C80" t="n">
-        <v>55.30912650205082</v>
-      </c>
-      <c r="D80" t="n">
-        <v>655.6277277847822</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2412,12 +1928,6 @@
       <c r="B81" t="n">
         <v>361</v>
       </c>
-      <c r="C81" t="n">
-        <v>72.04472097301804</v>
-      </c>
-      <c r="D81" t="n">
-        <v>663.2391900905236</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2426,12 +1936,6 @@
       <c r="B82" t="n">
         <v>363</v>
       </c>
-      <c r="C82" t="n">
-        <v>65.79188384707582</v>
-      </c>
-      <c r="D82" t="n">
-        <v>701.3819250975336</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2440,12 +1944,6 @@
       <c r="B83" t="n">
         <v>364</v>
       </c>
-      <c r="C83" t="n">
-        <v>63.1633785833931</v>
-      </c>
-      <c r="D83" t="n">
-        <v>645.6708884888151</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -2453,12 +1951,6 @@
       </c>
       <c r="B84" t="n">
         <v>366</v>
-      </c>
-      <c r="C84" t="n">
-        <v>43.93508478977477</v>
-      </c>
-      <c r="D84" t="n">
-        <v>668.7600443474503</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7BHDLY_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,6 +1051,14 @@
         <v>680</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1062,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1266,14 @@
         <v>2020</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1269,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,7 +1310,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
@@ -1302,7 +1318,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
@@ -1310,7 +1326,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
@@ -1318,7 +1334,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6">
@@ -1326,7 +1342,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -1334,7 +1350,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1358,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -1350,7 +1366,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -1358,7 +1374,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11">
@@ -1366,7 +1382,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12">
@@ -1374,7 +1390,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13">
@@ -1382,7 +1398,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
@@ -1390,7 +1406,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15">
@@ -1398,7 +1414,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16">
@@ -1406,7 +1422,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
@@ -1414,7 +1430,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18">
@@ -1422,7 +1438,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1446,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20">
@@ -1438,7 +1454,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21">
@@ -1446,7 +1462,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22">
@@ -1454,7 +1470,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23">
@@ -1462,7 +1478,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -1470,7 +1486,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25">
@@ -1478,7 +1494,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
@@ -1510,7 +1526,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
@@ -1518,7 +1534,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
@@ -1526,7 +1542,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
@@ -1534,7 +1550,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
@@ -1542,7 +1558,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
@@ -1550,7 +1566,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
@@ -1558,7 +1574,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
@@ -1566,7 +1582,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
@@ -1574,7 +1590,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
@@ -1582,7 +1598,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1606,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40">
@@ -1598,7 +1614,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
@@ -1606,7 +1622,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
@@ -1614,7 +1630,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
@@ -1622,7 +1638,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1646,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45">
@@ -1638,7 +1654,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46">
@@ -1646,7 +1662,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47">
@@ -1654,7 +1670,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48">
@@ -1662,7 +1678,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49">
@@ -1670,7 +1686,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
@@ -1678,7 +1694,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51">
@@ -1686,7 +1702,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
@@ -1694,7 +1710,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53">
@@ -1702,7 +1718,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
@@ -1710,7 +1726,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
@@ -1718,7 +1734,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56">
@@ -1726,7 +1742,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57">
@@ -1734,7 +1750,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58">
@@ -1742,7 +1758,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59">
@@ -1750,7 +1766,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60">
@@ -1758,7 +1774,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61">
@@ -1766,7 +1782,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62">
@@ -1774,7 +1790,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63">
@@ -1782,7 +1798,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64">
@@ -1790,7 +1806,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65">
@@ -1798,7 +1814,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66">
@@ -1806,7 +1822,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67">
@@ -1814,7 +1830,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68">
@@ -1822,7 +1838,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69">
@@ -1830,7 +1846,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70">
@@ -1838,7 +1854,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71">
@@ -1846,7 +1862,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72">
@@ -1854,7 +1870,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73">
@@ -1862,7 +1878,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74">
@@ -1870,7 +1886,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75">
@@ -1878,7 +1894,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76">
@@ -1886,71 +1902,79 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>366</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B85" t="n">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
